--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">TC001</t>
   </si>
   <si>
-    <t xml:space="preserve">Get a List of Current Users Playlists</t>
+    <t xml:space="preserve">POST statuses/update</t>
   </si>
   <si>
     <t xml:space="preserve">/1.1/statuses/update.json</t>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t xml:space="preserve">This is a test tweet via API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST statuses/destroy/:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/1.1/statuses/destroy/</t>
   </si>
 </sst>
 </file>
@@ -226,10 +235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -266,10 +275,10 @@
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -287,6 +296,20 @@
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -310,7 +333,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t xml:space="preserve">/1.1/statuses/destroy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET statuses/show/:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/1.1/statuses/show.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET statuses/lookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/1.1/statuses/lookup.json</t>
   </si>
 </sst>
 </file>
@@ -235,10 +253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,6 +329,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -333,7 +379,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
